--- a/team_specific_matrix/Southwest (NM)_A.xlsx
+++ b/team_specific_matrix/Southwest (NM)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
   </sheetData>
